--- a/data/trans_orig/IMC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,63; 27,16</t>
+          <t>26,64; 27,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,31; 27,9</t>
+          <t>27,28; 27,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,26; 27,92</t>
+          <t>27,28; 27,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,59; 28,31</t>
+          <t>27,55; 28,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,18; 27,71</t>
+          <t>27,16; 27,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,25; 28,83</t>
+          <t>28,24; 28,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,13; 28,88</t>
+          <t>28,13; 28,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,67; 28,23</t>
+          <t>27,64; 28,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,0; 27,37</t>
+          <t>26,99; 27,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,91; 28,31</t>
+          <t>27,92; 28,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,84; 28,36</t>
+          <t>27,84; 28,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,69; 28,16</t>
+          <t>27,7; 28,16</t>
         </is>
       </c>
     </row>
@@ -864,42 +864,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,47; 25,79</t>
+          <t>25,46; 25,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,18; 26,54</t>
+          <t>26,19; 26,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,06; 26,45</t>
+          <t>26,05; 26,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,45; 27,96</t>
+          <t>26,47; 28,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,02; 24,44</t>
+          <t>24,04; 24,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,06; 25,54</t>
+          <t>25,07; 25,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,09; 25,53</t>
+          <t>25,09; 25,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,49; 28,75</t>
+          <t>25,49; 28,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 26,02</t>
+          <t>25,72; 26,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,64; 25,93</t>
+          <t>25,63; 25,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,08; 27,89</t>
+          <t>26,08; 27,87</t>
         </is>
       </c>
     </row>
@@ -1004,52 +1004,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,36; 25,93</t>
+          <t>25,35; 25,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,67; 26,35</t>
+          <t>25,71; 26,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,53; 26,22</t>
+          <t>25,54; 26,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,83; 26,5</t>
+          <t>25,83; 26,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,22; 24,01</t>
+          <t>23,2; 24,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,33; 24,05</t>
+          <t>23,37; 24,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,95; 24,73</t>
+          <t>23,93; 24,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,31; 24,94</t>
+          <t>24,29; 24,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,42; 24,93</t>
+          <t>24,45; 24,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,64; 25,16</t>
+          <t>24,65; 25,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,15; 25,6</t>
+          <t>25,14; 25,6</t>
         </is>
       </c>
     </row>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,9; 26,15</t>
+          <t>25,89; 26,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,5; 26,79</t>
+          <t>26,52; 26,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,34; 26,63</t>
+          <t>26,34; 26,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,62; 27,7</t>
+          <t>26,61; 27,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,22; 25,56</t>
+          <t>25,22; 25,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,07; 26,43</t>
+          <t>26,08; 26,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,82; 26,18</t>
+          <t>25,82; 26,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,81; 27,9</t>
+          <t>25,83; 28,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,33; 26,57</t>
+          <t>26,34; 26,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,11; 26,35</t>
+          <t>26,12; 26,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,28; 27,44</t>
+          <t>26,28; 27,55</t>
         </is>
       </c>
     </row>
